--- a/dataanalysis/source/0516-1.xlsx
+++ b/dataanalysis/source/0516-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
   <si>
     <t>date</t>
   </si>
@@ -62,22 +62,19 @@
     <t>consecutive_upper_days</t>
   </si>
   <si>
-    <t>upper_days_counts</t>
-  </si>
-  <si>
-    <t>ma_amount_days_ratio_3</t>
-  </si>
-  <si>
-    <t>ma_amount_days_ratio_5</t>
-  </si>
-  <si>
-    <t>ma_amount_days_ratio_8</t>
-  </si>
-  <si>
-    <t>ma_amount_days_ratio_11</t>
-  </si>
-  <si>
-    <t>total_score</t>
+    <t>upper_count_in_days</t>
+  </si>
+  <si>
+    <t>ma_amount_3_days_ratio</t>
+  </si>
+  <si>
+    <t>ma_amount_5_days_ratio</t>
+  </si>
+  <si>
+    <t>ma_amount_8_days_ratio</t>
+  </si>
+  <si>
+    <t>ma_amount_11_days_ratio</t>
   </si>
   <si>
     <t>amount_score</t>
@@ -336,14 +333,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,13 +829,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,118 +847,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,8 +963,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1505,7 +1495,7 @@
   <dimension ref="A1:AY48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="$A1:$XFD48"/>
+      <selection activeCell="L1" sqref="L1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1545,132 +1535,132 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:51">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="1">
         <v>47.5</v>
@@ -1822,10 +1812,10 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:51">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1">
         <v>31.92</v>
@@ -1977,10 +1967,10 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:51">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>8.88</v>
@@ -2132,10 +2122,10 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:51">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1">
         <v>31.78</v>
@@ -2287,10 +2277,10 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:51">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>7.2</v>
@@ -2442,10 +2432,10 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:51">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>5.04</v>
@@ -2597,10 +2587,10 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:51">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>26.92</v>
@@ -2752,10 +2742,10 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:51">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>25.48</v>
@@ -2907,10 +2897,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:51">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>5.76</v>
@@ -3062,10 +3052,10 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:51">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>8.51</v>
@@ -3217,10 +3207,10 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:51">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1">
         <v>5.13</v>
@@ -3372,10 +3362,10 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:51">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1">
         <v>24.76</v>
@@ -3527,10 +3517,10 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:51">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1">
         <v>15.41</v>
@@ -3682,10 +3672,10 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:51">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1">
         <v>5.42</v>
@@ -3837,10 +3827,10 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:51">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1">
         <v>14.69</v>
@@ -3992,10 +3982,10 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:51">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1">
         <v>51.88</v>
@@ -4147,10 +4137,10 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:51">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1">
         <v>3.98</v>
@@ -4302,10 +4292,10 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:51">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1">
         <v>86.08</v>
@@ -4457,10 +4447,10 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:51">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1">
         <v>2.68</v>
@@ -4612,10 +4602,10 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:51">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1">
         <v>58.3</v>
@@ -4767,10 +4757,10 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="1:51">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1">
         <v>31.76</v>
@@ -4922,10 +4912,10 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:51">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1">
         <v>25.49</v>
@@ -5077,10 +5067,10 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:51">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1">
         <v>16.56</v>
@@ -5232,10 +5222,10 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:51">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1">
         <v>13.02</v>
@@ -5387,10 +5377,10 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:51">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1">
         <v>18</v>
@@ -5542,10 +5532,10 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:51">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1">
         <v>25.21</v>
@@ -5697,10 +5687,10 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:51">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1">
         <v>68.3</v>
@@ -5852,10 +5842,10 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:51">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1">
         <v>84.62</v>
@@ -6007,10 +5997,10 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:51">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1">
         <v>99.53</v>
@@ -6162,10 +6152,10 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:51">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1">
         <v>35.9</v>
@@ -6317,10 +6307,10 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="1:51">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1">
         <v>49.48</v>
@@ -6472,10 +6462,10 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:51">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1">
         <v>17.8</v>
@@ -6627,10 +6617,10 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:51">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1">
         <v>7.65</v>
@@ -6782,10 +6772,10 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:51">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1">
         <v>31.1</v>
@@ -6937,10 +6927,10 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:51">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1">
         <v>20.15</v>
@@ -7092,10 +7082,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:51">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1">
         <v>9.32</v>
@@ -7247,10 +7237,10 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="1:51">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="1">
         <v>6.12</v>
@@ -7402,10 +7392,10 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:51">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1">
         <v>42.5</v>
@@ -7557,10 +7547,10 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:51">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1">
         <v>17.78</v>
@@ -7712,10 +7702,10 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:51">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1">
         <v>16.3</v>
@@ -7867,10 +7857,10 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:51">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>24.25</v>
@@ -8022,10 +8012,10 @@
     </row>
     <row r="43" s="1" customFormat="1" spans="1:51">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1">
         <v>20.16</v>
@@ -8177,10 +8167,10 @@
     </row>
     <row r="44" s="1" customFormat="1" spans="1:51">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1">
         <v>23.42</v>
@@ -8332,10 +8322,10 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:51">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1">
         <v>7.86</v>
@@ -8487,10 +8477,10 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="1:51">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="1">
         <v>38.83</v>
@@ -8642,10 +8632,10 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="1:51">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1">
         <v>65.42</v>
@@ -8797,10 +8787,10 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:51">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="1">
         <v>5.76</v>
